--- a/DesignDocs/Design/발주 문서/레벨디자인 계획서.xlsx
+++ b/DesignDocs/Design/발주 문서/레벨디자인 계획서.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="121">
   <si>
     <t>섹션 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
   </si>
   <si>
     <t>Jake / 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.107 / 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어가 주의깊게 플레이 하지 않으면 가시가 위험한 섹션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,27 +180,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조작법 튜토리얼구간 및 마을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NPC아너킹 등장, 플레이 시작하면 시작 되는 곳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 이후 첫번째로 등장하는 엑트(고정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 이후 첫번째로 등장하는 엑트(고정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 이후 첫번째로 등장하는 엑트(고정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,39 +224,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 튜토리얼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 튜토리얼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 튜토리얼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No. 107/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No. 107/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No.107 / 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.107 / 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -292,23 +236,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마을 이후 두번째로 등장하는 엑트(고정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A + L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작법이 서투르면 짜증나느 구간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작법이 서투르면 클리어가 어려운 구간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 주의깊게 플레이 하지 않으면 가시가 위험한 섹션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,7 +248,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>섹션 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19_019 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 시작 구간 및 마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 튜토리얼 제이크 추가로 원거리 mob상대법을 배움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. 107/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. 107/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사용 튜토리얼, 스킬 사용 유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 및 스킬 세팅  튜토리얼 구간, mob배치 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.107 / 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 튜토리얼 마지막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 이후 첫번째로 등장하는 0엑트(고정), 1,2,3, 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 이후 첫번째로 등장하는 0엑트(고정), 1,2,3, 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 이후 두번째로 등장하는 1엑트(고정), 4, 5, 6, 7 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 이후 두번째로 등장하는 1엑트(고정), 4, 5, 6, 7 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 이후 두번째로 등장하는 1엑트(고정), 4, 5, 6, 7 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위로 올라가는 발판에 제이크를 제거 해야만 위로 올라갈 수 있는 섹션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대한 많은 발판 과 기믹을 사용하여 진행을 어렵게 만든 섹션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌 체크가 안되어 있는 공간 으로 떨어지면 죽는 구간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.107 / 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.107 / 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좁은 출돌 부분에서 많은 mob을 배치하여 진행이 어려운 섹션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위아래 색션을 연결하는 길목 섹션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래로만 진행가능한 길목 섹션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌체크가 없는 길에 빠지면 PC가 들어서면 게임 오버되는 섹션, mob배치로 진행이 상당히 까다로움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.107 / 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 상단에 다운스mob으로 인해 진행이 힘든 진행이 어려운 구간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jake / 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈센션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단독 배치 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 부분에 바운스 mob배치로 진행하는데 까다로운 섹션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jake / 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터는 없지만 충돌체크 없는 부분을 밟으면 죽는 섹션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>빈섹션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17과 베리에이션 다름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,7 +964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,13 +1061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -921,10 +1103,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,19 +1121,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,7 +1179,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2BCDC42-D833-4AF2-B61D-094C5BA3AE21}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BCDC42-D833-4AF2-B61D-094C5BA3AE21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1048,7 +1239,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56D5D688-5EB5-456B-B28C-E0C02A8591E6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D5D688-5EB5-456B-B28C-E0C02A8591E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,7 +1299,7 @@
         <xdr:cNvPr id="4" name="직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8514ADB1-F602-451E-A0C8-066B08D03AB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8514ADB1-F602-451E-A0C8-066B08D03AB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1168,7 +1359,7 @@
         <xdr:cNvPr id="6" name="자유형: 도형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48038EDB-A049-4445-9741-49C66225FFD6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48038EDB-A049-4445-9741-49C66225FFD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1470,7 @@
         <xdr:cNvPr id="7" name="직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56AFE4B0-9FB0-469B-B98C-A91EB1A76C1D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56AFE4B0-9FB0-469B-B98C-A91EB1A76C1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1530,7 @@
         <xdr:cNvPr id="8" name="자유형: 도형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E85E4A9-9E9A-4655-804F-1C4403943DF7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E85E4A9-9E9A-4655-804F-1C4403943DF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1641,7 @@
         <xdr:cNvPr id="9" name="직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A871E7F3-2546-4BA0-B6D1-0E044BCED8F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A871E7F3-2546-4BA0-B6D1-0E044BCED8F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1701,7 @@
         <xdr:cNvPr id="12" name="직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD408EBF-6CF4-484C-98FA-89EE0F99F7B7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD408EBF-6CF4-484C-98FA-89EE0F99F7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1761,7 @@
         <xdr:cNvPr id="13" name="직사각형 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{109CEAB0-7900-40B4-8964-B1AF0B40B0DD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109CEAB0-7900-40B4-8964-B1AF0B40B0DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1821,7 @@
         <xdr:cNvPr id="14" name="직사각형 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4206D92B-7A7B-4D9D-B2EF-CC88E68A17DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4206D92B-7A7B-4D9D-B2EF-CC88E68A17DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1881,7 @@
         <xdr:cNvPr id="15" name="직사각형 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9804065-8C0F-4D99-9067-294E52EC7F1F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9804065-8C0F-4D99-9067-294E52EC7F1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1941,7 @@
         <xdr:cNvPr id="16" name="직사각형 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC3AD369-080E-4147-A33F-2F75B9749FEA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3AD369-080E-4147-A33F-2F75B9749FEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1810,7 +2001,7 @@
         <xdr:cNvPr id="17" name="직사각형 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E55F0EFA-1F1F-4FF0-A0FA-233F05DF77A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55F0EFA-1F1F-4FF0-A0FA-233F05DF77A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1870,7 +2061,7 @@
         <xdr:cNvPr id="18" name="직사각형 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{869076C4-A8AA-46ED-B826-5AC2266EC07B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869076C4-A8AA-46ED-B826-5AC2266EC07B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +2121,7 @@
         <xdr:cNvPr id="19" name="직사각형 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34C7D58B-9D52-41CB-9776-03019CD24DD8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C7D58B-9D52-41CB-9776-03019CD24DD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +2181,7 @@
         <xdr:cNvPr id="21" name="직사각형 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F10E667-D409-4947-A9E3-8553F8B1DCE6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F10E667-D409-4947-A9E3-8553F8B1DCE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2050,7 +2241,7 @@
         <xdr:cNvPr id="22" name="직사각형 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25E4AE4F-4999-42CD-9FEB-C8AE33EA85A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E4AE4F-4999-42CD-9FEB-C8AE33EA85A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2301,7 @@
         <xdr:cNvPr id="23" name="직사각형 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72CA4B95-7CEA-4CCB-AFB2-BECF16136BEE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CA4B95-7CEA-4CCB-AFB2-BECF16136BEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2361,7 @@
         <xdr:cNvPr id="24" name="직사각형 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1616EF7-AFB0-4699-B7BC-41AD698B6EE5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1616EF7-AFB0-4699-B7BC-41AD698B6EE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2421,7 @@
         <xdr:cNvPr id="25" name="직사각형 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A1F4E50-3984-4124-8E99-651DDDDA8587}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1F4E50-3984-4124-8E99-651DDDDA8587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2481,7 @@
         <xdr:cNvPr id="26" name="직사각형 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC3794FC-585E-4294-8D90-01173CFF9C80}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3794FC-585E-4294-8D90-01173CFF9C80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2541,7 @@
         <xdr:cNvPr id="27" name="직사각형 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1D72AF9-F990-4805-A37E-0C49EDE5012A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D72AF9-F990-4805-A37E-0C49EDE5012A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2601,7 @@
         <xdr:cNvPr id="28" name="직사각형 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27436A45-450B-4DDD-AADB-2DA1DED57EE6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27436A45-450B-4DDD-AADB-2DA1DED57EE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2661,7 @@
         <xdr:cNvPr id="29" name="직사각형 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1137BA3F-9FA7-495B-8937-2C094263959E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1137BA3F-9FA7-495B-8937-2C094263959E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2721,7 @@
         <xdr:cNvPr id="30" name="직사각형 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8950626A-D7B0-47A0-AC33-F29FF28DA738}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8950626A-D7B0-47A0-AC33-F29FF28DA738}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2781,7 @@
         <xdr:cNvPr id="31" name="직사각형 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69384A84-1EA6-4A9E-88C5-7182F3005D38}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69384A84-1EA6-4A9E-88C5-7182F3005D38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2841,7 @@
         <xdr:cNvPr id="32" name="직사각형 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F3F5940-E845-4332-B8D6-626BFC9CFF7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3F5940-E845-4332-B8D6-626BFC9CFF7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2901,7 @@
         <xdr:cNvPr id="33" name="직사각형 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C41FE97-BF91-4580-ABAC-756BBE695583}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C41FE97-BF91-4580-ABAC-756BBE695583}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2770,7 +2961,7 @@
         <xdr:cNvPr id="37" name="직사각형 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD4B48CD-D280-483C-9A49-CD3C1FCE6417}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4B48CD-D280-483C-9A49-CD3C1FCE6417}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2830,7 +3021,7 @@
         <xdr:cNvPr id="40" name="직사각형 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1EFE1978-9CD3-4609-A3A9-C7645FEA7DEB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EFE1978-9CD3-4609-A3A9-C7645FEA7DEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +3081,7 @@
         <xdr:cNvPr id="41" name="직사각형 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FA6D9BD-1754-463A-ADFE-5ACACA7A0918}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA6D9BD-1754-463A-ADFE-5ACACA7A0918}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,7 +3141,7 @@
         <xdr:cNvPr id="34" name="직사각형 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD4B48CD-D280-483C-9A49-CD3C1FCE6417}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4B48CD-D280-483C-9A49-CD3C1FCE6417}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3201,7 @@
         <xdr:cNvPr id="38" name="직사각형 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F3F5940-E845-4332-B8D6-626BFC9CFF7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3F5940-E845-4332-B8D6-626BFC9CFF7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,7 +3261,7 @@
         <xdr:cNvPr id="39" name="직사각형 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F3F5940-E845-4332-B8D6-626BFC9CFF7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3F5940-E845-4332-B8D6-626BFC9CFF7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3135,7 +3326,7 @@
         <xdr:cNvPr id="7" name="직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3195,7 +3386,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3446,7 @@
         <xdr:cNvPr id="24" name="직사각형 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3315,7 +3506,7 @@
         <xdr:cNvPr id="25" name="직사각형 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3375,7 +3566,7 @@
         <xdr:cNvPr id="26" name="직사각형 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3435,7 +3626,7 @@
         <xdr:cNvPr id="27" name="직사각형 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3495,7 +3686,7 @@
         <xdr:cNvPr id="28" name="직사각형 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3555,7 +3746,7 @@
         <xdr:cNvPr id="29" name="직사각형 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3615,7 +3806,7 @@
         <xdr:cNvPr id="30" name="직사각형 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,7 +3866,7 @@
         <xdr:cNvPr id="31" name="직사각형 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3735,7 +3926,7 @@
         <xdr:cNvPr id="32" name="직사각형 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3795,7 +3986,7 @@
         <xdr:cNvPr id="33" name="직사각형 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3855,7 +4046,7 @@
         <xdr:cNvPr id="34" name="직사각형 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3915,7 +4106,7 @@
         <xdr:cNvPr id="35" name="직사각형 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3975,7 +4166,7 @@
         <xdr:cNvPr id="36" name="직사각형 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4035,7 +4226,7 @@
         <xdr:cNvPr id="37" name="직사각형 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4095,7 +4286,7 @@
         <xdr:cNvPr id="38" name="직사각형 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4155,7 +4346,7 @@
         <xdr:cNvPr id="39" name="직사각형 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4215,7 +4406,7 @@
         <xdr:cNvPr id="40" name="직사각형 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4275,7 +4466,7 @@
         <xdr:cNvPr id="41" name="직사각형 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80605B2-E2F6-4CEE-BEB6-68C6BEC70D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6242,13 +6433,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>114302</xdr:rowOff>
+      <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6257,7 +6448,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2800350" y="24660227"/>
+          <a:off x="2800350" y="24679277"/>
           <a:ext cx="1085850" cy="209548"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6315,7 +6506,7 @@
         <xdr:cNvPr id="64" name="자유형: 도형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48038EDB-A049-4445-9741-49C66225FFD6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48038EDB-A049-4445-9741-49C66225FFD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6426,7 +6617,7 @@
         <xdr:cNvPr id="76" name="자유형: 도형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48038EDB-A049-4445-9741-49C66225FFD6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48038EDB-A049-4445-9741-49C66225FFD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6537,7 +6728,7 @@
         <xdr:cNvPr id="77" name="직사각형 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A871E7F3-2546-4BA0-B6D1-0E044BCED8F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A871E7F3-2546-4BA0-B6D1-0E044BCED8F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6546,6 +6737,426 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6981825" y="26984324"/>
+          <a:ext cx="4381500" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="직사각형 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="4886325"/>
+          <a:ext cx="1085850" cy="209548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="직사각형 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="4819650"/>
+          <a:ext cx="1085850" cy="209548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>209548</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="직사각형 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="5362575"/>
+          <a:ext cx="1085850" cy="209548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>180977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="직사각형 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="30422852"/>
+          <a:ext cx="1085850" cy="209548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="직사각형 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="30356177"/>
+          <a:ext cx="1085850" cy="209548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="직사각형 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="30918152"/>
+          <a:ext cx="1085850" cy="209548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="직사각형 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A871E7F3-2546-4BA0-B6D1-0E044BCED8F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="30127574"/>
           <a:ext cx="4381500" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6888,488 +7499,511 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="35" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="35" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="35" t="s">
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="35" t="s">
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="35" t="s">
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="35" t="s">
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="35" t="s">
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="41"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="39"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="37"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="44"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="42"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="37"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="44"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="42"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="38"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="47"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="45"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="48"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="41"/>
+      <c r="B57" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="37"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="44"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="42"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="37"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="44"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="38"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="47"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="48"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="41"/>
+      <c r="B63" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="37"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="39"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="37"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="44"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="42"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="37"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="44"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="42"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="38"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="47"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="45"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="32"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="34"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:F55"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:F45"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:F60"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:F40"/>
+    <mergeCell ref="C22:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="B31:F31"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:F5"/>
     <mergeCell ref="B63:B66"/>
@@ -7386,29 +8020,6 @@
     <mergeCell ref="C17:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:F45"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C57:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:F55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7435,10 +8046,10 @@
     <row r="1" spans="2:18" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
@@ -7446,17 +8057,17 @@
       <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="49" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="25"/>
       <c r="I2" s="10"/>
       <c r="K2" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>0</v>
@@ -7470,44 +8081,44 @@
       <c r="R2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="23"/>
       <c r="H3" s="3"/>
       <c r="I3" s="24"/>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
+      <c r="L3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
       <c r="O3" s="51"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="11"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="55"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="35"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="1"/>
       <c r="H4" s="23"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="45"/>
       <c r="O4" s="51"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="2"/>
@@ -7517,25 +8128,25 @@
       <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="53"/>
+      <c r="C5" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="55"/>
       <c r="K5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="53"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="55"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
@@ -7545,8 +8156,8 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="54"/>
       <c r="K6" s="18" t="s">
         <v>6</v>
@@ -7555,78 +8166,78 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
       <c r="R6" s="54"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="54"/>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="53" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
       <c r="R7" s="54"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="55"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="54"/>
-      <c r="K8" s="52"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
       <c r="R8" s="54"/>
     </row>
     <row r="9" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
       <c r="K9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49"/>
+        <v>9</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
     </row>
     <row r="10" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
@@ -7641,24 +8252,24 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
+      <c r="C12" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="51"/>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="52"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="51"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
@@ -7668,13 +8279,13 @@
       <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="53"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="55"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
@@ -7684,48 +8295,48 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="54"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="54"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="52"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="54"/>
     </row>
     <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
     </row>
     <row r="19" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="17" t="s">
@@ -7740,22 +8351,22 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="51"/>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="51"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
@@ -7765,13 +8376,13 @@
       <c r="B23" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="53"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="55"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
@@ -7781,48 +8392,48 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="54"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
+        <v>9</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="57"/>
     </row>
     <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="17" t="s">
@@ -7837,22 +8448,22 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="51"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="51"/>
       <c r="G31" s="1"/>
       <c r="H31" s="2"/>
@@ -7862,13 +8473,13 @@
       <c r="B32" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="53"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="55"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
@@ -7878,48 +8489,48 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="54"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="54"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="52"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
       <c r="I35" s="54"/>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
+        <v>9</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="57"/>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="17" t="s">
@@ -7934,22 +8545,22 @@
       <c r="I38" s="10"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="51"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="52"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="51"/>
       <c r="G40" s="1"/>
       <c r="H40" s="2"/>
@@ -7959,13 +8570,13 @@
       <c r="B41" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="53"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="55"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
@@ -7975,48 +8586,48 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="54"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="54"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="52"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
       <c r="I44" s="54"/>
     </row>
     <row r="45" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="49"/>
+        <v>9</v>
+      </c>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="57"/>
     </row>
     <row r="46" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="17" t="s">
@@ -8031,22 +8642,22 @@
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="51"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="11"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="52"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="45"/>
       <c r="F49" s="51"/>
       <c r="G49" s="1"/>
       <c r="H49" s="2"/>
@@ -8056,13 +8667,13 @@
       <c r="B50" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="53"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="55"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="18" t="s">
@@ -8072,48 +8683,48 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
       <c r="I51" s="54"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
       <c r="I52" s="54"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="52"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
       <c r="I53" s="54"/>
     </row>
     <row r="54" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="49"/>
+        <v>9</v>
+      </c>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="57"/>
     </row>
     <row r="55" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="17" t="s">
@@ -8128,22 +8739,22 @@
       <c r="I56" s="10"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="41"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="39"/>
       <c r="F57" s="51"/>
       <c r="G57" s="2"/>
       <c r="H57" s="3"/>
       <c r="I57" s="11"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="52"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="47"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45"/>
       <c r="F58" s="51"/>
       <c r="G58" s="1"/>
       <c r="H58" s="2"/>
@@ -8153,13 +8764,13 @@
       <c r="B59" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="53"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="55"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
@@ -8169,48 +8780,48 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
       <c r="I60" s="54"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
       <c r="I61" s="54"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="52"/>
+      <c r="B62" s="53"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
       <c r="I62" s="54"/>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="49"/>
+        <v>9</v>
+      </c>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="57"/>
     </row>
     <row r="64" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="17" t="s">
@@ -8225,22 +8836,22 @@
       <c r="I65" s="10"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="39"/>
       <c r="F66" s="51"/>
       <c r="G66" s="2"/>
       <c r="H66" s="3"/>
       <c r="I66" s="11"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="52"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="47"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="45"/>
       <c r="F67" s="51"/>
       <c r="G67" s="1"/>
       <c r="H67" s="2"/>
@@ -8250,13 +8861,13 @@
       <c r="B68" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="53"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="55"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="18" t="s">
@@ -8266,48 +8877,48 @@
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
       <c r="I69" s="54"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="52"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="49"/>
+        <v>9</v>
+      </c>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="57"/>
     </row>
     <row r="73" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="17" t="s">
@@ -8322,22 +8933,22 @@
       <c r="I74" s="10"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="39"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="41"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
       <c r="F75" s="51"/>
       <c r="G75" s="2"/>
       <c r="H75" s="3"/>
       <c r="I75" s="11"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="52"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="47"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="45"/>
       <c r="F76" s="51"/>
       <c r="G76" s="1"/>
       <c r="H76" s="2"/>
@@ -8347,13 +8958,13 @@
       <c r="B77" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="53"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="55"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="18" t="s">
@@ -8363,48 +8974,48 @@
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
       <c r="I78" s="54"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
       <c r="I79" s="54"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B80" s="52"/>
+      <c r="B80" s="53"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
       <c r="I80" s="54"/>
     </row>
     <row r="81" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="49"/>
+        <v>9</v>
+      </c>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="57"/>
     </row>
     <row r="82" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="17" t="s">
@@ -8419,22 +9030,22 @@
       <c r="I83" s="10"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="39"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="41"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="39"/>
       <c r="F84" s="51"/>
       <c r="G84" s="2"/>
       <c r="H84" s="3"/>
       <c r="I84" s="11"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" s="52"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="47"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="45"/>
       <c r="F85" s="51"/>
       <c r="G85" s="1"/>
       <c r="H85" s="2"/>
@@ -8444,13 +9055,13 @@
       <c r="B86" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="53"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="55"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="18" t="s">
@@ -8460,66 +9071,109 @@
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B88" s="52" t="s">
+      <c r="B88" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
       <c r="I88" s="54"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B89" s="52"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
       <c r="I89" s="54"/>
     </row>
     <row r="90" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="49"/>
+        <v>9</v>
+      </c>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:N4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:E85"/>
+    <mergeCell ref="C86:I86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="C81:I81"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="C72:I72"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:E76"/>
+    <mergeCell ref="C77:I77"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:E58"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:E67"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:E49"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="C41:I41"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:E13"/>
     <mergeCell ref="C27:I27"/>
@@ -8536,69 +9190,26 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:E49"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:E58"/>
-    <mergeCell ref="C59:I59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:E67"/>
-    <mergeCell ref="C68:I68"/>
-    <mergeCell ref="C81:I81"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="C72:I72"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:E76"/>
-    <mergeCell ref="C77:I77"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:E85"/>
-    <mergeCell ref="C86:I86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8610,8 +9221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8630,28 +9241,28 @@
     <row r="1" spans="2:18" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="27"/>
       <c r="I2" s="10"/>
       <c r="K2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>0</v>
@@ -8659,7 +9270,7 @@
       <c r="N2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="49" t="s">
         <v>3</v>
       </c>
       <c r="P2" s="8"/>
@@ -8667,45 +9278,45 @@
       <c r="R2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="I3" s="11"/>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="L3" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
       <c r="P3" s="28"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="29"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="55"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="12"/>
@@ -8714,26 +9325,26 @@
       <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="C5" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="54"/>
       <c r="K5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="L5" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
       <c r="R5" s="54"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
@@ -8741,204 +9352,204 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="54"/>
       <c r="K6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
       <c r="R6" s="54"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="54"/>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="52" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
       <c r="R7" s="54"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="55"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="54"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
       <c r="R8" s="54"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="B9" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="54"/>
-      <c r="K9" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
+      <c r="K9" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
       <c r="R9" s="54"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="57"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="54"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
       <c r="R10" s="54"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="57"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="54"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
       <c r="R11" s="54"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="54"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
       <c r="R12" s="54"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="54"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
       <c r="R13" s="54"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="54"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
       <c r="R14" s="54"/>
     </row>
     <row r="15" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
       <c r="K15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57"/>
     </row>
     <row r="16" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
@@ -8952,36 +9563,36 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="49" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="27"/>
       <c r="I17" s="10"/>
       <c r="K17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O17" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="49" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="8"/>
@@ -8989,45 +9600,45 @@
       <c r="R17" s="10"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="28"/>
       <c r="H18" s="3"/>
       <c r="I18" s="29"/>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L18" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="L18" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="29"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="55"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="12"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="12"/>
@@ -9036,26 +9647,26 @@
       <c r="B20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="C20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="54"/>
       <c r="K20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
+      <c r="L20" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
       <c r="R20" s="54"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
@@ -9066,8 +9677,8 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="54"/>
       <c r="K21" s="13" t="s">
         <v>6</v>
@@ -9076,221 +9687,221 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
       <c r="R21" s="54"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="54"/>
-      <c r="K22" s="55" t="s">
+      <c r="K22" s="52" t="s">
         <v>7</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
       <c r="R22" s="54"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="55"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="54"/>
-      <c r="K23" s="55"/>
+      <c r="K23" s="52"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
       <c r="R23" s="54"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="B24" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="54"/>
-      <c r="K24" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="K24" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
       <c r="R24" s="54"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="57"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="54"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
       <c r="R25" s="54"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="57"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="54"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="54"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
       <c r="I27" s="54"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
       <c r="R27" s="54"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="57"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="54"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
       <c r="R28" s="54"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="54"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
       <c r="R29" s="54"/>
     </row>
     <row r="30" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="57"/>
       <c r="K30" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="57"/>
     </row>
     <row r="31" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="49" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="27"/>
       <c r="I32" s="10"/>
       <c r="K32" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O32" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" s="49" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="8"/>
@@ -9298,45 +9909,45 @@
       <c r="R32" s="10"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
+      <c r="C33" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="28"/>
       <c r="H33" s="3"/>
       <c r="I33" s="29"/>
-      <c r="K33" s="55" t="s">
+      <c r="K33" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L33" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+      <c r="L33" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="29"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="55"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="1"/>
       <c r="H34" s="2"/>
       <c r="I34" s="12"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="12"/>
@@ -9345,26 +9956,26 @@
       <c r="B35" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="C35" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
       <c r="I35" s="54"/>
       <c r="K35" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
+      <c r="L35" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
       <c r="R35" s="54"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
@@ -9372,13 +9983,13 @@
         <v>6</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="54"/>
       <c r="K36" s="13" t="s">
         <v>6</v>
@@ -9387,225 +9998,225 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
       <c r="R36" s="54"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="54"/>
-      <c r="K37" s="55" t="s">
+      <c r="K37" s="52" t="s">
         <v>7</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
       <c r="R37" s="54"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="55"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="54"/>
-      <c r="K38" s="55"/>
+      <c r="K38" s="52"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
       <c r="R38" s="54"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
+      <c r="B39" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="54"/>
-      <c r="K39" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
+      <c r="K39" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
       <c r="R39" s="54"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="54"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
       <c r="R40" s="54"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="57"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
       <c r="I41" s="54"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
       <c r="R41" s="54"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="57"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="54"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
       <c r="R42" s="54"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="57"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="54"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
       <c r="R43" s="54"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="57"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
       <c r="I44" s="54"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
       <c r="R44" s="54"/>
     </row>
     <row r="45" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="57"/>
       <c r="K45" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L45" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="L45" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="57"/>
     </row>
     <row r="46" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="49" t="s">
         <v>3</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="27"/>
       <c r="I47" s="10"/>
       <c r="K47" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L47" s="26" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O47" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="O47" s="49" t="s">
         <v>3</v>
       </c>
       <c r="P47" s="8"/>
@@ -9613,45 +10224,45 @@
       <c r="R47" s="10"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
+      <c r="C48" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="28"/>
       <c r="H48" s="3"/>
       <c r="I48" s="29"/>
-      <c r="K48" s="55" t="s">
+      <c r="K48" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L48" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
+      <c r="L48" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
       <c r="P48" s="28"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="29"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="55"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
       <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="12"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="12"/>
@@ -9660,26 +10271,26 @@
       <c r="B50" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
+      <c r="C50" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
       <c r="I50" s="54"/>
       <c r="K50" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L50" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
+      <c r="L50" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
       <c r="R50" s="54"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
@@ -9690,8 +10301,8 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
       <c r="I51" s="54"/>
       <c r="K51" s="13" t="s">
         <v>6</v>
@@ -9700,229 +10311,229 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
       <c r="R51" s="54"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
       <c r="I52" s="54"/>
-      <c r="K52" s="55" t="s">
+      <c r="K52" s="52" t="s">
         <v>7</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
       <c r="R52" s="54"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B53" s="55"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="5"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
       <c r="I53" s="54"/>
-      <c r="K53" s="55"/>
+      <c r="K53" s="52"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
       <c r="R53" s="54"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
+      <c r="B54" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
       <c r="I54" s="54"/>
-      <c r="K54" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
+      <c r="K54" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
       <c r="R54" s="54"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="57"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
       <c r="I55" s="54"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
       <c r="R55" s="54"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="57"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="54"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
       <c r="R56" s="54"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="57"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
       <c r="I57" s="54"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
       <c r="R57" s="54"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="57"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
       <c r="I58" s="54"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
       <c r="R58" s="54"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B59" s="57"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
       <c r="I59" s="54"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
       <c r="R59" s="54"/>
     </row>
     <row r="60" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="C60" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="57"/>
       <c r="K60" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L60" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="L60" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="57"/>
     </row>
     <row r="61" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="49" t="s">
         <v>3</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="30"/>
       <c r="I62" s="10"/>
       <c r="K62" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L62" s="26" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M62" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O62" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="O62" s="49" t="s">
         <v>3</v>
       </c>
       <c r="P62" s="8"/>
@@ -9930,45 +10541,45 @@
       <c r="R62" s="10"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
+      <c r="C63" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
       <c r="G63" s="28"/>
       <c r="H63" s="3"/>
       <c r="I63" s="29"/>
-      <c r="K63" s="55" t="s">
+      <c r="K63" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L63" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
+      <c r="L63" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
       <c r="P63" s="28"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="29"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B64" s="55"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
       <c r="G64" s="1"/>
       <c r="H64" s="2"/>
       <c r="I64" s="12"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="12"/>
@@ -9977,26 +10588,26 @@
       <c r="B65" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
+      <c r="C65" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
       <c r="I65" s="54"/>
       <c r="K65" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L65" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
+      <c r="L65" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
       <c r="R65" s="54"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.3">
@@ -10007,8 +10618,8 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="54"/>
       <c r="K66" s="13" t="s">
         <v>6</v>
@@ -10017,221 +10628,221 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
       <c r="R66" s="54"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
       <c r="I67" s="54"/>
-      <c r="K67" s="55" t="s">
+      <c r="K67" s="52" t="s">
         <v>7</v>
       </c>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
       <c r="R67" s="54"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B68" s="55"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
       <c r="I68" s="54"/>
-      <c r="K68" s="55"/>
+      <c r="K68" s="52"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
       <c r="R68" s="54"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B69" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
+      <c r="B69" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
       <c r="I69" s="54"/>
-      <c r="K69" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
+      <c r="K69" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
       <c r="R69" s="54"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B70" s="57"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
       <c r="I70" s="54"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
+      <c r="K70" s="58"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
       <c r="R70" s="54"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B71" s="57"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
       <c r="I71" s="54"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
+      <c r="K71" s="58"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
       <c r="R71" s="54"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B72" s="57"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
       <c r="I72" s="54"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
       <c r="R72" s="54"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B73" s="57"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
       <c r="I73" s="54"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
       <c r="R73" s="54"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B74" s="57"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
       <c r="I74" s="54"/>
-      <c r="K74" s="57"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
+      <c r="K74" s="58"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
       <c r="R74" s="54"/>
     </row>
     <row r="75" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="57"/>
       <c r="K75" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L75" s="48"/>
-      <c r="M75" s="48"/>
-      <c r="N75" s="48"/>
-      <c r="O75" s="48"/>
-      <c r="P75" s="48"/>
-      <c r="Q75" s="48"/>
-      <c r="R75" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="57"/>
     </row>
     <row r="76" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="77" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B77" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F77" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="49" t="s">
         <v>3</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="27"/>
       <c r="I77" s="10"/>
       <c r="K77" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L77" s="26" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O77" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="O77" s="49" t="s">
         <v>3</v>
       </c>
       <c r="P77" s="8"/>
@@ -10239,45 +10850,45 @@
       <c r="R77" s="10"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
+      <c r="C78" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
       <c r="G78" s="28"/>
       <c r="H78" s="3"/>
       <c r="I78" s="29"/>
-      <c r="K78" s="55" t="s">
+      <c r="K78" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L78" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
+      <c r="L78" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33"/>
       <c r="P78" s="28"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="29"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B79" s="55"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="28"/>
+      <c r="H79" s="2"/>
       <c r="I79" s="12"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="35"/>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="33"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="28"/>
       <c r="R79" s="12"/>
@@ -10286,26 +10897,26 @@
       <c r="B80" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
+      <c r="C80" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
       <c r="I80" s="54"/>
       <c r="K80" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
+      <c r="L80" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M80" s="33"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="33"/>
+      <c r="P80" s="33"/>
+      <c r="Q80" s="33"/>
       <c r="R80" s="54"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.3">
@@ -10316,8 +10927,8 @@
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
       <c r="I81" s="54"/>
       <c r="K81" s="13" t="s">
         <v>6</v>
@@ -10326,225 +10937,223 @@
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="33"/>
       <c r="R81" s="54"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
       <c r="I82" s="54"/>
-      <c r="K82" s="55" t="s">
+      <c r="K82" s="52" t="s">
         <v>7</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="33"/>
       <c r="R82" s="54"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B83" s="55"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
       <c r="I83" s="54"/>
-      <c r="K83" s="55"/>
+      <c r="K83" s="52"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="33"/>
       <c r="R83" s="54"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B84" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
+      <c r="B84" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
       <c r="I84" s="54"/>
-      <c r="K84" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
+      <c r="K84" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
       <c r="R84" s="54"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B85" s="57"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
       <c r="I85" s="54"/>
-      <c r="K85" s="57"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
+      <c r="K85" s="58"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="33"/>
       <c r="R85" s="54"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B86" s="57"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
       <c r="I86" s="54"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
+      <c r="K86" s="58"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="33"/>
       <c r="R86" s="54"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B87" s="57"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
       <c r="I87" s="54"/>
-      <c r="K87" s="57"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
+      <c r="K87" s="58"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="33"/>
       <c r="R87" s="54"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B88" s="57"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
       <c r="I88" s="54"/>
-      <c r="K88" s="57"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="35"/>
+      <c r="K88" s="58"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="33"/>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="33"/>
       <c r="R88" s="54"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B89" s="57"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
       <c r="I89" s="54"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="35"/>
-      <c r="O89" s="35"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
+      <c r="K89" s="58"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
       <c r="R89" s="54"/>
     </row>
     <row r="90" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="57"/>
       <c r="K90" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L90" s="48"/>
-      <c r="M90" s="48"/>
-      <c r="N90" s="48"/>
-      <c r="O90" s="48"/>
-      <c r="P90" s="48"/>
-      <c r="Q90" s="48"/>
-      <c r="R90" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="56"/>
+      <c r="P90" s="56"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="57"/>
     </row>
     <row r="91" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F92" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F92" s="49" t="s">
         <v>3</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="30"/>
       <c r="I92" s="10"/>
       <c r="K92" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L92" s="26" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M92" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O92" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="O92" s="49" t="s">
         <v>3</v>
       </c>
       <c r="P92" s="8"/>
@@ -10552,45 +11161,45 @@
       <c r="R92" s="10"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B93" s="55" t="s">
+      <c r="B93" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
+      <c r="C93" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
       <c r="G93" s="2"/>
       <c r="H93" s="3"/>
       <c r="I93" s="11"/>
-      <c r="K93" s="55" t="s">
+      <c r="K93" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L93" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35"/>
+      <c r="L93" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M93" s="33"/>
+      <c r="N93" s="33"/>
+      <c r="O93" s="33"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="11"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B94" s="55"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
       <c r="G94" s="1"/>
       <c r="H94" s="28"/>
       <c r="I94" s="12"/>
-      <c r="K94" s="55"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="35"/>
-      <c r="N94" s="35"/>
-      <c r="O94" s="35"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="28"/>
       <c r="R94" s="12"/>
@@ -10599,26 +11208,26 @@
       <c r="B95" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
+      <c r="C95" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
       <c r="I95" s="54"/>
       <c r="K95" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L95" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="M95" s="35"/>
-      <c r="N95" s="35"/>
-      <c r="O95" s="35"/>
-      <c r="P95" s="35"/>
-      <c r="Q95" s="35"/>
+      <c r="L95" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="M95" s="33"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="33"/>
+      <c r="P95" s="33"/>
+      <c r="Q95" s="33"/>
       <c r="R95" s="54"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.3">
@@ -10629,8 +11238,8 @@
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
       <c r="I96" s="54"/>
       <c r="K96" s="13" t="s">
         <v>6</v>
@@ -10639,225 +11248,217 @@
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
-      <c r="P96" s="35"/>
-      <c r="Q96" s="35"/>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="33"/>
       <c r="R96" s="54"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B97" s="55" t="s">
+      <c r="B97" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
       <c r="I97" s="54"/>
-      <c r="K97" s="55" t="s">
+      <c r="K97" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="L97" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="35"/>
+      <c r="P97" s="33"/>
+      <c r="Q97" s="33"/>
       <c r="R97" s="54"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B98" s="55"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
       <c r="I98" s="54"/>
-      <c r="K98" s="55"/>
+      <c r="K98" s="52"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
-      <c r="P98" s="35"/>
-      <c r="Q98" s="35"/>
+      <c r="P98" s="33"/>
+      <c r="Q98" s="33"/>
       <c r="R98" s="54"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B99" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
+      <c r="B99" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
       <c r="I99" s="54"/>
-      <c r="K99" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L99" s="35"/>
-      <c r="M99" s="35"/>
-      <c r="N99" s="35"/>
-      <c r="O99" s="35"/>
-      <c r="P99" s="35"/>
-      <c r="Q99" s="35"/>
+      <c r="K99" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
       <c r="R99" s="54"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B100" s="57"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
       <c r="I100" s="54"/>
-      <c r="K100" s="57"/>
-      <c r="L100" s="35"/>
-      <c r="M100" s="35"/>
-      <c r="N100" s="35"/>
-      <c r="O100" s="35"/>
-      <c r="P100" s="35"/>
-      <c r="Q100" s="35"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33"/>
+      <c r="O100" s="33"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
       <c r="R100" s="54"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B101" s="57"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
       <c r="I101" s="54"/>
-      <c r="K101" s="57"/>
-      <c r="L101" s="35"/>
-      <c r="M101" s="35"/>
-      <c r="N101" s="35"/>
-      <c r="O101" s="35"/>
-      <c r="P101" s="35"/>
-      <c r="Q101" s="35"/>
+      <c r="K101" s="58"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="33"/>
+      <c r="N101" s="33"/>
+      <c r="O101" s="33"/>
+      <c r="P101" s="33"/>
+      <c r="Q101" s="33"/>
       <c r="R101" s="54"/>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B102" s="57"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
       <c r="I102" s="54"/>
-      <c r="K102" s="57"/>
-      <c r="L102" s="35"/>
-      <c r="M102" s="35"/>
-      <c r="N102" s="35"/>
-      <c r="O102" s="35"/>
-      <c r="P102" s="35"/>
-      <c r="Q102" s="35"/>
+      <c r="K102" s="58"/>
+      <c r="L102" s="33"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="33"/>
+      <c r="O102" s="33"/>
+      <c r="P102" s="33"/>
+      <c r="Q102" s="33"/>
       <c r="R102" s="54"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B103" s="57"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
       <c r="I103" s="54"/>
-      <c r="K103" s="57"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="33"/>
+      <c r="O103" s="33"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
       <c r="R103" s="54"/>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B104" s="57"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
       <c r="I104" s="54"/>
-      <c r="K104" s="57"/>
-      <c r="L104" s="35"/>
-      <c r="M104" s="35"/>
-      <c r="N104" s="35"/>
-      <c r="O104" s="35"/>
-      <c r="P104" s="35"/>
-      <c r="Q104" s="35"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="33"/>
+      <c r="M104" s="33"/>
+      <c r="N104" s="33"/>
+      <c r="O104" s="33"/>
+      <c r="P104" s="33"/>
+      <c r="Q104" s="33"/>
       <c r="R104" s="54"/>
     </row>
     <row r="105" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="C105" s="56"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="57"/>
       <c r="K105" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L105" s="48"/>
-      <c r="M105" s="48"/>
-      <c r="N105" s="48"/>
-      <c r="O105" s="48"/>
-      <c r="P105" s="48"/>
-      <c r="Q105" s="48"/>
-      <c r="R105" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="L105" s="56"/>
+      <c r="M105" s="56"/>
+      <c r="N105" s="56"/>
+      <c r="O105" s="56"/>
+      <c r="P105" s="56"/>
+      <c r="Q105" s="56"/>
+      <c r="R105" s="57"/>
     </row>
     <row r="106" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B107" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F107" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="F107" s="49" t="s">
         <v>3</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="30"/>
       <c r="I107" s="10"/>
       <c r="K107" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L107" s="26" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M107" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O107" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="O107" s="49" t="s">
         <v>3</v>
       </c>
       <c r="P107" s="8"/>
@@ -10865,45 +11466,45 @@
       <c r="R107" s="10"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B108" s="55" t="s">
+      <c r="B108" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D108" s="35"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35"/>
+      <c r="C108" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
       <c r="G108" s="28"/>
       <c r="H108" s="3"/>
       <c r="I108" s="29"/>
-      <c r="K108" s="55" t="s">
+      <c r="K108" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L108" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M108" s="35"/>
-      <c r="N108" s="35"/>
-      <c r="O108" s="35"/>
+      <c r="L108" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M108" s="33"/>
+      <c r="N108" s="33"/>
+      <c r="O108" s="33"/>
       <c r="P108" s="28"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="29"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B109" s="55"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
       <c r="G109" s="1"/>
       <c r="H109" s="2"/>
       <c r="I109" s="12"/>
-      <c r="K109" s="55"/>
-      <c r="L109" s="35"/>
-      <c r="M109" s="35"/>
-      <c r="N109" s="35"/>
-      <c r="O109" s="35"/>
+      <c r="K109" s="52"/>
+      <c r="L109" s="33"/>
+      <c r="M109" s="33"/>
+      <c r="N109" s="33"/>
+      <c r="O109" s="33"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="12"/>
@@ -10912,26 +11513,26 @@
       <c r="B110" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C110" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="35"/>
+      <c r="C110" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33"/>
       <c r="I110" s="54"/>
       <c r="K110" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L110" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="M110" s="35"/>
-      <c r="N110" s="35"/>
-      <c r="O110" s="35"/>
-      <c r="P110" s="35"/>
-      <c r="Q110" s="35"/>
+      <c r="L110" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="M110" s="33"/>
+      <c r="N110" s="33"/>
+      <c r="O110" s="33"/>
+      <c r="P110" s="33"/>
+      <c r="Q110" s="33"/>
       <c r="R110" s="54"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.3">
@@ -10942,8 +11543,8 @@
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="33"/>
       <c r="I111" s="54"/>
       <c r="K111" s="13" t="s">
         <v>6</v>
@@ -10952,225 +11553,221 @@
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
-      <c r="P111" s="35"/>
-      <c r="Q111" s="35"/>
+      <c r="P111" s="33"/>
+      <c r="Q111" s="33"/>
       <c r="R111" s="54"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B112" s="55" t="s">
+      <c r="B112" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="C112" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="35"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
       <c r="I112" s="54"/>
-      <c r="K112" s="55" t="s">
+      <c r="K112" s="52" t="s">
         <v>7</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M112" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
-      <c r="P112" s="35"/>
-      <c r="Q112" s="35"/>
+      <c r="P112" s="33"/>
+      <c r="Q112" s="33"/>
       <c r="R112" s="54"/>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B113" s="55"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="35"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
       <c r="I113" s="54"/>
-      <c r="K113" s="55"/>
+      <c r="K113" s="52"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
-      <c r="P113" s="35"/>
-      <c r="Q113" s="35"/>
+      <c r="P113" s="33"/>
+      <c r="Q113" s="33"/>
       <c r="R113" s="54"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B114" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="35"/>
+      <c r="B114" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
       <c r="I114" s="54"/>
-      <c r="K114" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L114" s="35"/>
-      <c r="M114" s="35"/>
-      <c r="N114" s="35"/>
-      <c r="O114" s="35"/>
-      <c r="P114" s="35"/>
-      <c r="Q114" s="35"/>
+      <c r="K114" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L114" s="33"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="33"/>
+      <c r="O114" s="33"/>
+      <c r="P114" s="33"/>
+      <c r="Q114" s="33"/>
       <c r="R114" s="54"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B115" s="57"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="35"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="35"/>
-      <c r="H115" s="35"/>
+      <c r="B115" s="58"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="33"/>
       <c r="I115" s="54"/>
-      <c r="K115" s="57"/>
-      <c r="L115" s="35"/>
-      <c r="M115" s="35"/>
-      <c r="N115" s="35"/>
-      <c r="O115" s="35"/>
-      <c r="P115" s="35"/>
-      <c r="Q115" s="35"/>
+      <c r="K115" s="58"/>
+      <c r="L115" s="33"/>
+      <c r="M115" s="33"/>
+      <c r="N115" s="33"/>
+      <c r="O115" s="33"/>
+      <c r="P115" s="33"/>
+      <c r="Q115" s="33"/>
       <c r="R115" s="54"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B116" s="57"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="35"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="35"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
       <c r="I116" s="54"/>
-      <c r="K116" s="57"/>
-      <c r="L116" s="35"/>
-      <c r="M116" s="35"/>
-      <c r="N116" s="35"/>
-      <c r="O116" s="35"/>
-      <c r="P116" s="35"/>
-      <c r="Q116" s="35"/>
+      <c r="K116" s="58"/>
+      <c r="L116" s="33"/>
+      <c r="M116" s="33"/>
+      <c r="N116" s="33"/>
+      <c r="O116" s="33"/>
+      <c r="P116" s="33"/>
+      <c r="Q116" s="33"/>
       <c r="R116" s="54"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B117" s="57"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="35"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
       <c r="I117" s="54"/>
-      <c r="K117" s="57"/>
-      <c r="L117" s="35"/>
-      <c r="M117" s="35"/>
-      <c r="N117" s="35"/>
-      <c r="O117" s="35"/>
-      <c r="P117" s="35"/>
-      <c r="Q117" s="35"/>
+      <c r="K117" s="58"/>
+      <c r="L117" s="33"/>
+      <c r="M117" s="33"/>
+      <c r="N117" s="33"/>
+      <c r="O117" s="33"/>
+      <c r="P117" s="33"/>
+      <c r="Q117" s="33"/>
       <c r="R117" s="54"/>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B118" s="57"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
       <c r="I118" s="54"/>
-      <c r="K118" s="57"/>
-      <c r="L118" s="35"/>
-      <c r="M118" s="35"/>
-      <c r="N118" s="35"/>
-      <c r="O118" s="35"/>
-      <c r="P118" s="35"/>
-      <c r="Q118" s="35"/>
+      <c r="K118" s="58"/>
+      <c r="L118" s="33"/>
+      <c r="M118" s="33"/>
+      <c r="N118" s="33"/>
+      <c r="O118" s="33"/>
+      <c r="P118" s="33"/>
+      <c r="Q118" s="33"/>
       <c r="R118" s="54"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B119" s="57"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
+      <c r="B119" s="58"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
       <c r="I119" s="54"/>
-      <c r="K119" s="57"/>
-      <c r="L119" s="35"/>
-      <c r="M119" s="35"/>
-      <c r="N119" s="35"/>
-      <c r="O119" s="35"/>
-      <c r="P119" s="35"/>
-      <c r="Q119" s="35"/>
+      <c r="K119" s="58"/>
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="33"/>
+      <c r="O119" s="33"/>
+      <c r="P119" s="33"/>
+      <c r="Q119" s="33"/>
       <c r="R119" s="54"/>
     </row>
     <row r="120" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B120" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="48"/>
-      <c r="H120" s="48"/>
-      <c r="I120" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="C120" s="56"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="56"/>
+      <c r="F120" s="56"/>
+      <c r="G120" s="56"/>
+      <c r="H120" s="56"/>
+      <c r="I120" s="57"/>
       <c r="K120" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L120" s="48"/>
-      <c r="M120" s="48"/>
-      <c r="N120" s="48"/>
-      <c r="O120" s="48"/>
-      <c r="P120" s="48"/>
-      <c r="Q120" s="48"/>
-      <c r="R120" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="L120" s="56"/>
+      <c r="M120" s="56"/>
+      <c r="N120" s="56"/>
+      <c r="O120" s="56"/>
+      <c r="P120" s="56"/>
+      <c r="Q120" s="56"/>
+      <c r="R120" s="57"/>
     </row>
     <row r="121" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="122" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F122" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F122" s="49" t="s">
         <v>3</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="30"/>
       <c r="I122" s="10"/>
       <c r="K122" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L122" s="26" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M122" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N122" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O122" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="O122" s="49" t="s">
         <v>3</v>
       </c>
       <c r="P122" s="8"/>
@@ -11178,45 +11775,45 @@
       <c r="R122" s="10"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B123" s="55" t="s">
+      <c r="B123" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C123" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="35"/>
+      <c r="C123" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
       <c r="G123" s="28"/>
       <c r="H123" s="3"/>
       <c r="I123" s="29"/>
-      <c r="K123" s="55" t="s">
+      <c r="K123" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L123" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="M123" s="35"/>
-      <c r="N123" s="35"/>
-      <c r="O123" s="35"/>
+      <c r="L123" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M123" s="33"/>
+      <c r="N123" s="33"/>
+      <c r="O123" s="33"/>
       <c r="P123" s="28"/>
       <c r="Q123" s="3"/>
       <c r="R123" s="29"/>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B124" s="55"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
       <c r="G124" s="1"/>
       <c r="H124" s="2"/>
       <c r="I124" s="12"/>
-      <c r="K124" s="55"/>
-      <c r="L124" s="35"/>
-      <c r="M124" s="35"/>
-      <c r="N124" s="35"/>
-      <c r="O124" s="35"/>
+      <c r="K124" s="52"/>
+      <c r="L124" s="33"/>
+      <c r="M124" s="33"/>
+      <c r="N124" s="33"/>
+      <c r="O124" s="33"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="28"/>
       <c r="R124" s="12"/>
@@ -11225,26 +11822,26 @@
       <c r="B125" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C125" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D125" s="35"/>
-      <c r="E125" s="35"/>
-      <c r="F125" s="35"/>
-      <c r="G125" s="35"/>
-      <c r="H125" s="35"/>
+      <c r="C125" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
       <c r="I125" s="54"/>
       <c r="K125" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L125" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M125" s="35"/>
-      <c r="N125" s="35"/>
-      <c r="O125" s="35"/>
-      <c r="P125" s="35"/>
-      <c r="Q125" s="35"/>
+      <c r="L125" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="M125" s="33"/>
+      <c r="N125" s="33"/>
+      <c r="O125" s="33"/>
+      <c r="P125" s="33"/>
+      <c r="Q125" s="33"/>
       <c r="R125" s="54"/>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.3">
@@ -11255,8 +11852,8 @@
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="35"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="33"/>
       <c r="I126" s="54"/>
       <c r="K126" s="13" t="s">
         <v>6</v>
@@ -11265,221 +11862,221 @@
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
-      <c r="P126" s="35"/>
-      <c r="Q126" s="35"/>
+      <c r="P126" s="33"/>
+      <c r="Q126" s="33"/>
       <c r="R126" s="54"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B127" s="55" t="s">
+      <c r="B127" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="35"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="33"/>
       <c r="I127" s="54"/>
-      <c r="K127" s="55" t="s">
+      <c r="K127" s="52" t="s">
         <v>7</v>
       </c>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
-      <c r="P127" s="35"/>
-      <c r="Q127" s="35"/>
+      <c r="P127" s="33"/>
+      <c r="Q127" s="33"/>
       <c r="R127" s="54"/>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B128" s="55"/>
+      <c r="B128" s="52"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="35"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="33"/>
       <c r="I128" s="54"/>
-      <c r="K128" s="55"/>
+      <c r="K128" s="52"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
-      <c r="P128" s="35"/>
-      <c r="Q128" s="35"/>
+      <c r="P128" s="33"/>
+      <c r="Q128" s="33"/>
       <c r="R128" s="54"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B129" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="35"/>
-      <c r="F129" s="35"/>
-      <c r="G129" s="35"/>
-      <c r="H129" s="35"/>
+      <c r="B129" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33"/>
       <c r="I129" s="54"/>
-      <c r="K129" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L129" s="35"/>
-      <c r="M129" s="35"/>
-      <c r="N129" s="35"/>
-      <c r="O129" s="35"/>
-      <c r="P129" s="35"/>
-      <c r="Q129" s="35"/>
+      <c r="K129" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L129" s="33"/>
+      <c r="M129" s="33"/>
+      <c r="N129" s="33"/>
+      <c r="O129" s="33"/>
+      <c r="P129" s="33"/>
+      <c r="Q129" s="33"/>
       <c r="R129" s="54"/>
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B130" s="57"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
-      <c r="F130" s="35"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="35"/>
+      <c r="B130" s="58"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33"/>
       <c r="I130" s="54"/>
-      <c r="K130" s="57"/>
-      <c r="L130" s="35"/>
-      <c r="M130" s="35"/>
-      <c r="N130" s="35"/>
-      <c r="O130" s="35"/>
-      <c r="P130" s="35"/>
-      <c r="Q130" s="35"/>
+      <c r="K130" s="58"/>
+      <c r="L130" s="33"/>
+      <c r="M130" s="33"/>
+      <c r="N130" s="33"/>
+      <c r="O130" s="33"/>
+      <c r="P130" s="33"/>
+      <c r="Q130" s="33"/>
       <c r="R130" s="54"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B131" s="57"/>
-      <c r="C131" s="35"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="35"/>
-      <c r="F131" s="35"/>
-      <c r="G131" s="35"/>
-      <c r="H131" s="35"/>
+      <c r="B131" s="58"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33"/>
       <c r="I131" s="54"/>
-      <c r="K131" s="57"/>
-      <c r="L131" s="35"/>
-      <c r="M131" s="35"/>
-      <c r="N131" s="35"/>
-      <c r="O131" s="35"/>
-      <c r="P131" s="35"/>
-      <c r="Q131" s="35"/>
+      <c r="K131" s="58"/>
+      <c r="L131" s="33"/>
+      <c r="M131" s="33"/>
+      <c r="N131" s="33"/>
+      <c r="O131" s="33"/>
+      <c r="P131" s="33"/>
+      <c r="Q131" s="33"/>
       <c r="R131" s="54"/>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B132" s="57"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="35"/>
+      <c r="B132" s="58"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33"/>
       <c r="I132" s="54"/>
-      <c r="K132" s="57"/>
-      <c r="L132" s="35"/>
-      <c r="M132" s="35"/>
-      <c r="N132" s="35"/>
-      <c r="O132" s="35"/>
-      <c r="P132" s="35"/>
-      <c r="Q132" s="35"/>
+      <c r="K132" s="58"/>
+      <c r="L132" s="33"/>
+      <c r="M132" s="33"/>
+      <c r="N132" s="33"/>
+      <c r="O132" s="33"/>
+      <c r="P132" s="33"/>
+      <c r="Q132" s="33"/>
       <c r="R132" s="54"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B133" s="57"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="35"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
       <c r="I133" s="54"/>
-      <c r="K133" s="57"/>
-      <c r="L133" s="35"/>
-      <c r="M133" s="35"/>
-      <c r="N133" s="35"/>
-      <c r="O133" s="35"/>
-      <c r="P133" s="35"/>
-      <c r="Q133" s="35"/>
+      <c r="K133" s="58"/>
+      <c r="L133" s="33"/>
+      <c r="M133" s="33"/>
+      <c r="N133" s="33"/>
+      <c r="O133" s="33"/>
+      <c r="P133" s="33"/>
+      <c r="Q133" s="33"/>
       <c r="R133" s="54"/>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B134" s="57"/>
-      <c r="C134" s="35"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="35"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="33"/>
+      <c r="H134" s="33"/>
       <c r="I134" s="54"/>
-      <c r="K134" s="57"/>
-      <c r="L134" s="35"/>
-      <c r="M134" s="35"/>
-      <c r="N134" s="35"/>
-      <c r="O134" s="35"/>
-      <c r="P134" s="35"/>
-      <c r="Q134" s="35"/>
+      <c r="K134" s="58"/>
+      <c r="L134" s="33"/>
+      <c r="M134" s="33"/>
+      <c r="N134" s="33"/>
+      <c r="O134" s="33"/>
+      <c r="P134" s="33"/>
+      <c r="Q134" s="33"/>
       <c r="R134" s="54"/>
     </row>
     <row r="135" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B135" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C135" s="48"/>
-      <c r="D135" s="48"/>
-      <c r="E135" s="48"/>
-      <c r="F135" s="48"/>
-      <c r="G135" s="48"/>
-      <c r="H135" s="48"/>
-      <c r="I135" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="C135" s="56"/>
+      <c r="D135" s="56"/>
+      <c r="E135" s="56"/>
+      <c r="F135" s="56"/>
+      <c r="G135" s="56"/>
+      <c r="H135" s="56"/>
+      <c r="I135" s="57"/>
       <c r="K135" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L135" s="48"/>
-      <c r="M135" s="48"/>
-      <c r="N135" s="48"/>
-      <c r="O135" s="48"/>
-      <c r="P135" s="48"/>
-      <c r="Q135" s="48"/>
-      <c r="R135" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="L135" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="M135" s="56"/>
+      <c r="N135" s="56"/>
+      <c r="O135" s="56"/>
+      <c r="P135" s="56"/>
+      <c r="Q135" s="56"/>
+      <c r="R135" s="57"/>
     </row>
     <row r="136" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="137" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B137" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F137" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F137" s="49" t="s">
         <v>3</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="30"/>
       <c r="I137" s="10"/>
       <c r="K137" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L137" s="26" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M137" s="7" t="s">
         <v>0</v>
       </c>
       <c r="N137" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O137" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="O137" s="49" t="s">
         <v>3</v>
       </c>
       <c r="P137" s="8"/>
@@ -11487,45 +12084,45 @@
       <c r="R137" s="10"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B138" s="55" t="s">
+      <c r="B138" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D138" s="35"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
+      <c r="C138" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
       <c r="G138" s="28"/>
       <c r="H138" s="3"/>
       <c r="I138" s="29"/>
-      <c r="K138" s="55" t="s">
+      <c r="K138" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L138" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M138" s="35"/>
-      <c r="N138" s="35"/>
-      <c r="O138" s="35"/>
+      <c r="L138" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="M138" s="33"/>
+      <c r="N138" s="33"/>
+      <c r="O138" s="33"/>
       <c r="P138" s="28"/>
       <c r="Q138" s="3"/>
       <c r="R138" s="29"/>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B139" s="55"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="35"/>
-      <c r="F139" s="35"/>
+      <c r="B139" s="52"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="28"/>
+      <c r="H139" s="2"/>
       <c r="I139" s="12"/>
-      <c r="K139" s="55"/>
-      <c r="L139" s="35"/>
-      <c r="M139" s="35"/>
-      <c r="N139" s="35"/>
-      <c r="O139" s="35"/>
+      <c r="K139" s="52"/>
+      <c r="L139" s="33"/>
+      <c r="M139" s="33"/>
+      <c r="N139" s="33"/>
+      <c r="O139" s="33"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="28"/>
       <c r="R139" s="12"/>
@@ -11534,26 +12131,26 @@
       <c r="B140" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C140" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D140" s="35"/>
-      <c r="E140" s="35"/>
-      <c r="F140" s="35"/>
-      <c r="G140" s="35"/>
-      <c r="H140" s="35"/>
+      <c r="C140" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
       <c r="I140" s="54"/>
       <c r="K140" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L140" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="M140" s="35"/>
-      <c r="N140" s="35"/>
-      <c r="O140" s="35"/>
-      <c r="P140" s="35"/>
-      <c r="Q140" s="35"/>
+      <c r="L140" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="M140" s="33"/>
+      <c r="N140" s="33"/>
+      <c r="O140" s="33"/>
+      <c r="P140" s="33"/>
+      <c r="Q140" s="33"/>
       <c r="R140" s="54"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.3">
@@ -11564,8 +12161,8 @@
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="35"/>
-      <c r="H141" s="35"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
       <c r="I141" s="54"/>
       <c r="K141" s="13" t="s">
         <v>6</v>
@@ -11574,216 +12171,364 @@
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
-      <c r="P141" s="35"/>
-      <c r="Q141" s="35"/>
+      <c r="P141" s="33"/>
+      <c r="Q141" s="33"/>
       <c r="R141" s="54"/>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B142" s="55" t="s">
+      <c r="B142" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="35"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="33"/>
       <c r="I142" s="54"/>
-      <c r="K142" s="55" t="s">
+      <c r="K142" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="L142" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M142" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
-      <c r="P142" s="35"/>
-      <c r="Q142" s="35"/>
+      <c r="P142" s="33"/>
+      <c r="Q142" s="33"/>
       <c r="R142" s="54"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B143" s="55"/>
+      <c r="B143" s="52"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="35"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="33"/>
       <c r="I143" s="54"/>
-      <c r="K143" s="55"/>
+      <c r="K143" s="52"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
-      <c r="P143" s="35"/>
-      <c r="Q143" s="35"/>
+      <c r="P143" s="33"/>
+      <c r="Q143" s="33"/>
       <c r="R143" s="54"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B144" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C144" s="35"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="35"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="35"/>
+      <c r="B144" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="33"/>
       <c r="I144" s="54"/>
-      <c r="K144" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L144" s="35"/>
-      <c r="M144" s="35"/>
-      <c r="N144" s="35"/>
-      <c r="O144" s="35"/>
-      <c r="P144" s="35"/>
-      <c r="Q144" s="35"/>
+      <c r="K144" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L144" s="33"/>
+      <c r="M144" s="33"/>
+      <c r="N144" s="33"/>
+      <c r="O144" s="33"/>
+      <c r="P144" s="33"/>
+      <c r="Q144" s="33"/>
       <c r="R144" s="54"/>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B145" s="57"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="35"/>
-      <c r="F145" s="35"/>
-      <c r="G145" s="35"/>
-      <c r="H145" s="35"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="33"/>
       <c r="I145" s="54"/>
-      <c r="K145" s="57"/>
-      <c r="L145" s="35"/>
-      <c r="M145" s="35"/>
-      <c r="N145" s="35"/>
-      <c r="O145" s="35"/>
-      <c r="P145" s="35"/>
-      <c r="Q145" s="35"/>
+      <c r="K145" s="58"/>
+      <c r="L145" s="33"/>
+      <c r="M145" s="33"/>
+      <c r="N145" s="33"/>
+      <c r="O145" s="33"/>
+      <c r="P145" s="33"/>
+      <c r="Q145" s="33"/>
       <c r="R145" s="54"/>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B146" s="57"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="35"/>
-      <c r="F146" s="35"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="35"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33"/>
       <c r="I146" s="54"/>
-      <c r="K146" s="57"/>
-      <c r="L146" s="35"/>
-      <c r="M146" s="35"/>
-      <c r="N146" s="35"/>
-      <c r="O146" s="35"/>
-      <c r="P146" s="35"/>
-      <c r="Q146" s="35"/>
+      <c r="K146" s="58"/>
+      <c r="L146" s="33"/>
+      <c r="M146" s="33"/>
+      <c r="N146" s="33"/>
+      <c r="O146" s="33"/>
+      <c r="P146" s="33"/>
+      <c r="Q146" s="33"/>
       <c r="R146" s="54"/>
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B147" s="57"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="35"/>
-      <c r="F147" s="35"/>
-      <c r="G147" s="35"/>
-      <c r="H147" s="35"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="33"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="33"/>
       <c r="I147" s="54"/>
-      <c r="K147" s="57"/>
-      <c r="L147" s="35"/>
-      <c r="M147" s="35"/>
-      <c r="N147" s="35"/>
-      <c r="O147" s="35"/>
-      <c r="P147" s="35"/>
-      <c r="Q147" s="35"/>
+      <c r="K147" s="58"/>
+      <c r="L147" s="33"/>
+      <c r="M147" s="33"/>
+      <c r="N147" s="33"/>
+      <c r="O147" s="33"/>
+      <c r="P147" s="33"/>
+      <c r="Q147" s="33"/>
       <c r="R147" s="54"/>
     </row>
     <row r="148" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B148" s="57"/>
-      <c r="C148" s="35"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="35"/>
+      <c r="B148" s="58"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33"/>
       <c r="I148" s="54"/>
-      <c r="K148" s="57"/>
-      <c r="L148" s="35"/>
-      <c r="M148" s="35"/>
-      <c r="N148" s="35"/>
-      <c r="O148" s="35"/>
-      <c r="P148" s="35"/>
-      <c r="Q148" s="35"/>
+      <c r="K148" s="58"/>
+      <c r="L148" s="33"/>
+      <c r="M148" s="33"/>
+      <c r="N148" s="33"/>
+      <c r="O148" s="33"/>
+      <c r="P148" s="33"/>
+      <c r="Q148" s="33"/>
       <c r="R148" s="54"/>
     </row>
     <row r="149" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B149" s="57"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="35"/>
-      <c r="F149" s="35"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="35"/>
+      <c r="B149" s="58"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
       <c r="I149" s="54"/>
-      <c r="K149" s="57"/>
-      <c r="L149" s="35"/>
-      <c r="M149" s="35"/>
-      <c r="N149" s="35"/>
-      <c r="O149" s="35"/>
-      <c r="P149" s="35"/>
-      <c r="Q149" s="35"/>
+      <c r="K149" s="58"/>
+      <c r="L149" s="33"/>
+      <c r="M149" s="33"/>
+      <c r="N149" s="33"/>
+      <c r="O149" s="33"/>
+      <c r="P149" s="33"/>
+      <c r="Q149" s="33"/>
       <c r="R149" s="54"/>
     </row>
     <row r="150" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B150" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C150" s="48"/>
-      <c r="D150" s="48"/>
-      <c r="E150" s="48"/>
-      <c r="F150" s="48"/>
-      <c r="G150" s="48"/>
-      <c r="H150" s="48"/>
-      <c r="I150" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="C150" s="56"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="56"/>
+      <c r="H150" s="56"/>
+      <c r="I150" s="57"/>
       <c r="K150" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L150" s="48"/>
-      <c r="M150" s="48"/>
-      <c r="N150" s="48"/>
-      <c r="O150" s="48"/>
-      <c r="P150" s="48"/>
-      <c r="Q150" s="48"/>
-      <c r="R150" s="49"/>
+        <v>30</v>
+      </c>
+      <c r="L150" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="M150" s="56"/>
+      <c r="N150" s="56"/>
+      <c r="O150" s="56"/>
+      <c r="P150" s="56"/>
+      <c r="Q150" s="56"/>
+      <c r="R150" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="220">
-    <mergeCell ref="C150:I150"/>
-    <mergeCell ref="O137:O139"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="L138:N139"/>
-    <mergeCell ref="L140:R140"/>
-    <mergeCell ref="P141:R141"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="P142:R142"/>
-    <mergeCell ref="P143:R143"/>
-    <mergeCell ref="K144:K149"/>
-    <mergeCell ref="L144:R149"/>
-    <mergeCell ref="L150:R150"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="C144:I149"/>
-    <mergeCell ref="F137:F139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:E139"/>
-    <mergeCell ref="C140:I140"/>
-    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="L9:R14"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:N4"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="C9:I14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:N19"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="K24:K29"/>
+    <mergeCell ref="L24:R29"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:I44"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:N34"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="K39:K44"/>
+    <mergeCell ref="L39:R44"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="C54:I59"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:E49"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C60:I60"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:N49"/>
+    <mergeCell ref="L50:R50"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="K54:K59"/>
+    <mergeCell ref="L54:R59"/>
+    <mergeCell ref="L60:R60"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="C69:I74"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:E64"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="C75:I75"/>
+    <mergeCell ref="O62:O64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:N64"/>
+    <mergeCell ref="L65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="K69:K74"/>
+    <mergeCell ref="L69:R74"/>
+    <mergeCell ref="L75:R75"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="C84:I89"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:E79"/>
+    <mergeCell ref="C80:I80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="O77:O79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:N79"/>
+    <mergeCell ref="L80:R80"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="K84:K89"/>
+    <mergeCell ref="L84:R89"/>
+    <mergeCell ref="L90:R90"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="C99:I104"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:E94"/>
+    <mergeCell ref="C95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="C105:I105"/>
+    <mergeCell ref="O92:O94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:N94"/>
+    <mergeCell ref="L95:R95"/>
+    <mergeCell ref="P96:R96"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="P97:R97"/>
+    <mergeCell ref="P98:R98"/>
+    <mergeCell ref="K99:K104"/>
+    <mergeCell ref="L99:R104"/>
+    <mergeCell ref="L105:R105"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="C114:I119"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:E109"/>
+    <mergeCell ref="C110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="C120:I120"/>
+    <mergeCell ref="O107:O109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:N109"/>
+    <mergeCell ref="L110:R110"/>
+    <mergeCell ref="P111:R111"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="P112:R112"/>
+    <mergeCell ref="P113:R113"/>
+    <mergeCell ref="K114:K119"/>
+    <mergeCell ref="L114:R119"/>
+    <mergeCell ref="L120:R120"/>
     <mergeCell ref="L135:R135"/>
     <mergeCell ref="B127:B128"/>
     <mergeCell ref="G127:I127"/>
@@ -11806,182 +12551,28 @@
     <mergeCell ref="P128:R128"/>
     <mergeCell ref="K129:K134"/>
     <mergeCell ref="L129:R134"/>
-    <mergeCell ref="C120:I120"/>
-    <mergeCell ref="O107:O109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:N109"/>
-    <mergeCell ref="L110:R110"/>
-    <mergeCell ref="P111:R111"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="P112:R112"/>
-    <mergeCell ref="P113:R113"/>
-    <mergeCell ref="K114:K119"/>
-    <mergeCell ref="L114:R119"/>
-    <mergeCell ref="L120:R120"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="C114:I119"/>
-    <mergeCell ref="F107:F109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:E109"/>
-    <mergeCell ref="C110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="C105:I105"/>
-    <mergeCell ref="O92:O94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:N94"/>
-    <mergeCell ref="L95:R95"/>
-    <mergeCell ref="P96:R96"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="P97:R97"/>
-    <mergeCell ref="P98:R98"/>
-    <mergeCell ref="K99:K104"/>
-    <mergeCell ref="L99:R104"/>
-    <mergeCell ref="L105:R105"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="C99:I104"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:E94"/>
-    <mergeCell ref="C95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="O77:O79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:N79"/>
-    <mergeCell ref="L80:R80"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="K84:K89"/>
-    <mergeCell ref="L84:R89"/>
-    <mergeCell ref="L90:R90"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="C84:I89"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:E79"/>
-    <mergeCell ref="C80:I80"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="C75:I75"/>
-    <mergeCell ref="O62:O64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:N64"/>
-    <mergeCell ref="L65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="K69:K74"/>
-    <mergeCell ref="L69:R74"/>
-    <mergeCell ref="L75:R75"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="C69:I74"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:E64"/>
-    <mergeCell ref="C65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="C60:I60"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:N49"/>
-    <mergeCell ref="L50:R50"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="K54:K59"/>
-    <mergeCell ref="L54:R59"/>
-    <mergeCell ref="L60:R60"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="C54:I59"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:E49"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="O32:O34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:N34"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="K39:K44"/>
-    <mergeCell ref="L39:R44"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:I44"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:N19"/>
-    <mergeCell ref="L20:R20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="K24:K29"/>
-    <mergeCell ref="L24:R29"/>
-    <mergeCell ref="L30:R30"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="K9:K14"/>
-    <mergeCell ref="L9:R14"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:N4"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="C9:I14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="C144:I149"/>
+    <mergeCell ref="F137:F139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:E139"/>
+    <mergeCell ref="C140:I140"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="C150:I150"/>
+    <mergeCell ref="O137:O139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="L138:N139"/>
+    <mergeCell ref="L140:R140"/>
+    <mergeCell ref="P141:R141"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="P142:R142"/>
+    <mergeCell ref="P143:R143"/>
+    <mergeCell ref="K144:K149"/>
+    <mergeCell ref="L144:R149"/>
+    <mergeCell ref="L150:R150"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
